--- a/Emad Branch/inertfaces.xlsx
+++ b/Emad Branch/inertfaces.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Emad-Yousef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Emad-Yousef\Emad Branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="843" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="843" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -25,10 +25,9 @@
     <sheet name="الغرامات" sheetId="20" r:id="rId11"/>
     <sheet name="إعارة كتاب" sheetId="5" r:id="rId12"/>
     <sheet name="حذف كتاب" sheetId="17" r:id="rId13"/>
-    <sheet name="الإستعلام عن الكتب المحذوفة" sheetId="18" r:id="rId14"/>
-    <sheet name="الإستعلام عن طريق الاسم" sheetId="13" r:id="rId15"/>
-    <sheet name="الإستعلام عن طريق رقم التصنيف" sheetId="14" r:id="rId16"/>
-    <sheet name="الإستعلام عن الكتاب" sheetId="6" r:id="rId17"/>
+    <sheet name="الإستعلام عن الكتاب" sheetId="6" r:id="rId14"/>
+    <sheet name="الإستعلام عن المحذوفة" sheetId="23" r:id="rId15"/>
+    <sheet name="الإستعلام عن الغرامات" sheetId="39" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>أسم الموظف</t>
   </si>
@@ -156,9 +155,6 @@
     <t>إدارة الكتب</t>
   </si>
   <si>
-    <t xml:space="preserve">إعارة واسترجاع </t>
-  </si>
-  <si>
     <t>اسم المؤلف</t>
   </si>
   <si>
@@ -213,32 +209,86 @@
     <t>الإستعلام عن الكتب المحذوفة</t>
   </si>
   <si>
-    <t>الإستعلام عن طريق تاريخ النشر</t>
-  </si>
-  <si>
-    <t>الإستعلام عن طريق تاريخ الإصدار</t>
-  </si>
-  <si>
-    <t>الإستعلام عن طريق إسم المؤلف</t>
-  </si>
-  <si>
     <t>طلب الكتاب</t>
   </si>
   <si>
-    <t>الغرامات</t>
-  </si>
-  <si>
     <t>الغرامة</t>
   </si>
   <si>
     <t>رقم الغرامة</t>
+  </si>
+  <si>
+    <t>تسجيل الدخول</t>
+  </si>
+  <si>
+    <t>التقارير</t>
+  </si>
+  <si>
+    <t>تعديل</t>
+  </si>
+  <si>
+    <t>خروج</t>
+  </si>
+  <si>
+    <t>طلب</t>
+  </si>
+  <si>
+    <t>إلغاء الأمر</t>
+  </si>
+  <si>
+    <t>أسم العضو</t>
+  </si>
+  <si>
+    <t>تاريخ الإعارة</t>
+  </si>
+  <si>
+    <t>إعارة</t>
+  </si>
+  <si>
+    <t>إسترجاع الكتاب</t>
+  </si>
+  <si>
+    <t>فترة الإستعارة</t>
+  </si>
+  <si>
+    <t>استرجاع كتاب</t>
+  </si>
+  <si>
+    <t>عودة</t>
+  </si>
+  <si>
+    <t>ادخل اسم الكتاب</t>
+  </si>
+  <si>
+    <t>بحث</t>
+  </si>
+  <si>
+    <t>اسم الكتاب</t>
+  </si>
+  <si>
+    <t>نوع الكتاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اضغط على الكتاب لفتحه </t>
+  </si>
+  <si>
+    <t>تاريخ الحذف</t>
+  </si>
+  <si>
+    <t>الإستعلام عن الغرامات</t>
+  </si>
+  <si>
+    <t>فترة الإعارة</t>
+  </si>
+  <si>
+    <t>طباعة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,19 +354,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -327,12 +379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,12 +402,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -418,21 +482,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,20 +610,11 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -583,11 +623,65 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,9 +689,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,97 +730,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,10 +1111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="D5:O38"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,54 +1339,69 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>43</v>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
+      <c r="D5" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>39</v>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1291,45 +1413,94 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1337,54 +1508,80 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
+      <c r="D4" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>20</v>
+    <row r="5" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1396,10 +1593,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1410,28 +1608,28 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="45" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="42" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1445,78 +1643,207 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:2" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+    </row>
+    <row r="6" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="2">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="120" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7"/>
+    <row r="3" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="44" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1528,139 +1855,173 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="44" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1669,15 +2030,17 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1689,58 +2052,65 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D9"/>
+    <mergeCell ref="C4:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1749,10 +2119,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView rightToLeft="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1762,26 +2133,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="44" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1794,10 +2171,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView rightToLeft="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,77 +2183,94 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="5" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1887,10 +2282,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H7"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="C2:H13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1898,71 +2294,88 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="3:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="3:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="3:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="3:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="32"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="9" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1978,10 +2391,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1992,32 +2406,32 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2030,10 +2444,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H11"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="C2:H12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView rightToLeft="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2049,65 +2464,80 @@
   <sheetData>
     <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="3:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="3:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="3:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="G7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="3:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="3:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="G7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="3:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="10" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G7:H7"/>
@@ -2119,10 +2549,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,140 +2566,149 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Emad Branch/inertfaces.xlsx
+++ b/Emad Branch/inertfaces.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="843" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="843" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="إعارة كتاب" sheetId="5" r:id="rId12"/>
     <sheet name="حذف كتاب" sheetId="17" r:id="rId13"/>
     <sheet name="الإستعلام عن الكتاب" sheetId="6" r:id="rId14"/>
-    <sheet name="الإستعلام عن المحذوفة" sheetId="23" r:id="rId15"/>
-    <sheet name="الإستعلام عن الغرامات" sheetId="39" r:id="rId16"/>
+    <sheet name="الإستعلام عن الكتب المستعارة" sheetId="40" r:id="rId15"/>
+    <sheet name="الإستعلام عن الكتب المحذوفة" sheetId="23" r:id="rId16"/>
+    <sheet name="الإستعلام عن الغرامات" sheetId="39" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
   <si>
     <t>أسم الموظف</t>
   </si>
@@ -282,6 +283,9 @@
   </si>
   <si>
     <t>طباعة</t>
+  </si>
+  <si>
+    <t>الإستعلام عن الكتب المستعارة</t>
   </si>
 </sst>
 </file>
@@ -754,6 +758,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,16 +786,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,9 +814,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,19 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,11 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,12 +1360,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -1391,15 +1395,15 @@
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1430,26 +1434,26 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="12" t="s">
         <v>69</v>
       </c>
@@ -1477,22 +1481,22 @@
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1512,7 +1516,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D4" activeCellId="1" sqref="B4:B6 D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1525,12 +1529,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -1564,22 +1568,22 @@
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1608,27 +1612,27 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1646,7 +1650,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1659,11 +1663,11 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1675,23 +1679,23 @@
     </row>
     <row r="6" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="41"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="18"/>
       <c r="D11" t="s">
         <v>76</v>
       </c>
@@ -1708,39 +1712,39 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1753,6 +1757,131 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B2:E14"/>
@@ -1771,12 +1900,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1793,55 +1922,55 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1853,13 +1982,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1871,14 +2000,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1901,69 +2030,69 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1993,35 +2122,35 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
+      <c r="B9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2052,53 +2181,53 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -2134,29 +2263,29 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2189,14 +2318,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -2256,19 +2385,19 @@
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2300,14 +2429,14 @@
   <sheetData>
     <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -2331,9 +2460,9 @@
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="3:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
@@ -2343,37 +2472,37 @@
       <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="9" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2406,25 +2535,25 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
@@ -2464,16 +2593,16 @@
   <sheetData>
     <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="3:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -2514,27 +2643,27 @@
         <v>24</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="3:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2566,14 +2695,14 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -2586,112 +2715,113 @@
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="20" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
@@ -2708,7 +2838,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
